--- a/Forms/AfterTest (respostas) (2).xlsx
+++ b/Forms/AfterTest (respostas) (2).xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeronimo\Documents\GitHub\DataAnalysis3DController\Forms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Respostas ao formulário 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -943,20 +951,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -964,7 +981,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -979,64 +996,321 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BA65" sqref="BA65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="43" width="21.57"/>
-    <col customWidth="1" min="44" max="44" width="46.57"/>
-    <col customWidth="1" min="45" max="53" width="21.57"/>
+    <col min="1" max="43" width="21.5703125" customWidth="1"/>
+    <col min="44" max="44" width="46.5703125" customWidth="1"/>
+    <col min="45" max="53" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1235,99 +1509,99 @@
       <c r="AT2" s="4"/>
       <c r="AU2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>42524.64679849537</v>
+        <v>42524.646798495371</v>
       </c>
       <c r="B3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N3" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O3" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T3" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>53</v>
       </c>
       <c r="V3" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W3" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB3" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="4" t="s">
         <v>53</v>
       </c>
       <c r="AD3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI3" s="4" t="s">
         <v>54</v>
@@ -1354,7 +1628,7 @@
         <v>55</v>
       </c>
       <c r="AQ3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AR3" s="4" t="s">
         <v>57</v>
@@ -1372,93 +1646,93 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>42524.64765745371</v>
+        <v>42524.647657453708</v>
       </c>
       <c r="B4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD4" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI4" s="4" t="s">
         <v>54</v>
@@ -1485,7 +1759,7 @@
         <v>55</v>
       </c>
       <c r="AQ4" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS4" s="4" t="s">
         <v>58</v>
@@ -1500,93 +1774,93 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>42524.68394974537</v>
+        <v>42524.683949745369</v>
       </c>
       <c r="B5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O5" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P5" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V5" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W5" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X5" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AD5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AH5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI5" s="4" t="s">
         <v>54</v>
@@ -1613,7 +1887,7 @@
         <v>54</v>
       </c>
       <c r="AQ5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AR5" s="4" t="s">
         <v>63</v>
@@ -1634,99 +1908,99 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>42524.68397208334</v>
+        <v>42524.683972083338</v>
       </c>
       <c r="B6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S6" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>66</v>
       </c>
       <c r="V6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA6" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AC6" s="4" t="s">
         <v>67</v>
       </c>
       <c r="AD6" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI6" s="4" t="s">
         <v>61</v>
@@ -1753,7 +2027,7 @@
         <v>55</v>
       </c>
       <c r="AQ6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AR6" s="4" t="s">
         <v>68</v>
@@ -1774,108 +2048,108 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>42524.68415431713</v>
+        <v>42524.684154317132</v>
       </c>
       <c r="B7" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>71</v>
       </c>
       <c r="R7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U7" s="4" t="s">
         <v>72</v>
       </c>
       <c r="V7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>73</v>
       </c>
       <c r="Z7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AC7" s="4" t="s">
         <v>74</v>
       </c>
       <c r="AD7" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF7" s="4" t="s">
         <v>75</v>
       </c>
       <c r="AG7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI7" s="4" t="s">
         <v>61</v>
@@ -1902,7 +2176,7 @@
         <v>61</v>
       </c>
       <c r="AQ7" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AR7" s="4" t="s">
         <v>76</v>
@@ -1929,93 +2203,93 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>42527.40307869213</v>
+        <v>42527.403078692128</v>
       </c>
       <c r="B8" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M8" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T8" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB8" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD8" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI8" s="4" t="s">
         <v>80</v>
@@ -2042,7 +2316,7 @@
         <v>80</v>
       </c>
       <c r="AQ8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS8" s="4" t="s">
         <v>58</v>
@@ -2066,99 +2340,99 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>42527.404278946764</v>
       </c>
       <c r="B9" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E9" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J9" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K9" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L9" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M9" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N9" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O9" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P9" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R9" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S9" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T9" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>83</v>
       </c>
       <c r="V9" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W9" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X9" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z9" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA9" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB9" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AC9" s="4" t="s">
         <v>84</v>
       </c>
       <c r="AD9" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG9" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AH9" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI9" s="4" t="s">
         <v>80</v>
@@ -2185,7 +2459,7 @@
         <v>81</v>
       </c>
       <c r="AQ9" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AR9" s="4" t="s">
         <v>86</v>
@@ -2215,96 +2489,96 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>42527.40460201389</v>
+        <v>42527.404602013892</v>
       </c>
       <c r="B10" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E10" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G10" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J10" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K10" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L10" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M10" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N10" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O10" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P10" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R10" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S10" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T10" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V10" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W10" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X10" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z10" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA10" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB10" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AD10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AF10" s="4" t="s">
         <v>89</v>
       </c>
       <c r="AG10" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH10" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI10" s="4" t="s">
         <v>90</v>
@@ -2331,7 +2605,7 @@
         <v>80</v>
       </c>
       <c r="AQ10" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AR10" s="4" t="s">
         <v>91</v>
@@ -2358,93 +2632,93 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>42527.40595712963</v>
+        <v>42527.405957129631</v>
       </c>
       <c r="B11" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K11" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L11" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O11" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S11" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W11" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA11" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AD11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AE11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG11" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI11" s="4" t="s">
         <v>81</v>
@@ -2471,7 +2745,7 @@
         <v>80</v>
       </c>
       <c r="AQ11" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS11" s="4" t="s">
         <v>58</v>
@@ -2498,99 +2772,99 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>42527.43410267361</v>
+        <v>42527.434102673607</v>
       </c>
       <c r="B12" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M12" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N12" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>95</v>
       </c>
       <c r="R12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AD12" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF12" s="4" t="s">
         <v>96</v>
       </c>
       <c r="AG12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH12" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI12" s="4" t="s">
         <v>80</v>
@@ -2617,7 +2891,7 @@
         <v>81</v>
       </c>
       <c r="AQ12" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AS12" s="4" t="s">
         <v>59</v>
@@ -2644,108 +2918,108 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>42527.43420087963</v>
       </c>
       <c r="B13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M13" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N13" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P13" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>99</v>
       </c>
       <c r="R13" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S13" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T13" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>100</v>
       </c>
       <c r="V13" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W13" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X13" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y13" s="4" t="s">
         <v>101</v>
       </c>
       <c r="Z13" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AC13" s="4" t="s">
         <v>102</v>
       </c>
       <c r="AD13" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE13" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF13" s="4" t="s">
         <v>103</v>
       </c>
       <c r="AG13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI13" s="4" t="s">
         <v>81</v>
@@ -2772,7 +3046,7 @@
         <v>104</v>
       </c>
       <c r="AQ13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AR13" s="4" t="s">
         <v>105</v>
@@ -2802,99 +3076,99 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>42527.44822097222</v>
+        <v>42527.448220972219</v>
       </c>
       <c r="B14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E14" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G14" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J14" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K14" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L14" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R14" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S14" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T14" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U14" s="4" t="s">
         <v>108</v>
       </c>
       <c r="V14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W14" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA14" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AD14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF14" s="4" t="s">
         <v>109</v>
       </c>
       <c r="AG14" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI14" s="4" t="s">
         <v>81</v>
@@ -2921,7 +3195,7 @@
         <v>80</v>
       </c>
       <c r="AQ14" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AR14" s="4" t="s">
         <v>110</v>
@@ -2951,105 +3225,105 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>42527.450528587964</v>
       </c>
       <c r="B15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J15" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M15" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>113</v>
       </c>
       <c r="R15" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T15" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>114</v>
       </c>
       <c r="V15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="4" t="s">
         <v>115</v>
       </c>
       <c r="Z15" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB15" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AC15" s="4" t="s">
         <v>116</v>
       </c>
       <c r="AD15" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG15" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI15" s="4" t="s">
         <v>81</v>
@@ -3076,7 +3350,7 @@
         <v>81</v>
       </c>
       <c r="AQ15" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AR15" s="4" t="s">
         <v>117</v>
@@ -3109,108 +3383,108 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>42528.44113869213</v>
+        <v>42528.441138692127</v>
       </c>
       <c r="B16" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H16" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K16" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L16" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O16" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P16" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>121</v>
       </c>
       <c r="R16" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S16" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T16" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U16" s="4" t="s">
         <v>122</v>
       </c>
       <c r="V16" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W16" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X16" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y16" s="4" t="s">
         <v>123</v>
       </c>
       <c r="Z16" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA16" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB16" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AC16" s="4" t="s">
         <v>124</v>
       </c>
       <c r="AD16" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE16" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF16" s="4" t="s">
         <v>125</v>
       </c>
       <c r="AG16" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH16" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI16" s="4" t="s">
         <v>80</v>
@@ -3237,7 +3511,7 @@
         <v>104</v>
       </c>
       <c r="AQ16" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AR16" s="4" t="s">
         <v>126</v>
@@ -3270,108 +3544,108 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>42528.44463391203</v>
+        <v>42528.444633912033</v>
       </c>
       <c r="B17" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E17" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G17" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J17" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K17" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L17" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M17" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N17" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O17" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P17" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>130</v>
       </c>
       <c r="R17" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S17" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T17" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U17" s="4" t="s">
         <v>131</v>
       </c>
       <c r="V17" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W17" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X17" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y17" s="4" t="s">
         <v>132</v>
       </c>
       <c r="Z17" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="4" t="s">
         <v>133</v>
       </c>
       <c r="AD17" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF17" s="4" t="s">
         <v>134</v>
       </c>
       <c r="AG17" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH17" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI17" s="4" t="s">
         <v>81</v>
@@ -3398,7 +3672,7 @@
         <v>135</v>
       </c>
       <c r="AQ17" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AR17" s="4" t="s">
         <v>136</v>
@@ -3431,96 +3705,96 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>42528.4734834375</v>
+        <v>42528.473483437498</v>
       </c>
       <c r="B18" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E18" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J18" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K18" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L18" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M18" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N18" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O18" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P18" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>140</v>
       </c>
       <c r="R18" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S18" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T18" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U18" s="4" t="s">
         <v>141</v>
       </c>
       <c r="V18" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W18" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X18" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z18" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA18" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB18" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AC18" s="4" t="s">
         <v>142</v>
       </c>
       <c r="AD18" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE18" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
@@ -3546,99 +3820,99 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>42528.6082284375</v>
+        <v>42528.608228437501</v>
       </c>
       <c r="B19" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J19" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M19" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O19" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>145</v>
       </c>
       <c r="R19" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T19" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>146</v>
       </c>
       <c r="V19" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W19" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X19" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y19" s="4" t="s">
         <v>147</v>
       </c>
       <c r="Z19" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB19" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>148</v>
       </c>
       <c r="AD19" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AF19" s="4" t="s">
         <v>149</v>
@@ -3654,96 +3928,96 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>42528.65515902778</v>
+        <v>42528.655159027781</v>
       </c>
       <c r="B20" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E20" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G20" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H20" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L20" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M20" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N20" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O20" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P20" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R20" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S20" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T20" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V20" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W20" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X20" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z20" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA20" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AD20" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE20" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AF20" s="4" t="s">
         <v>153</v>
       </c>
       <c r="AG20" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH20" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI20" s="4" t="s">
         <v>80</v>
@@ -3797,108 +4071,108 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>42528.65581060185</v>
+        <v>42528.655810601849</v>
       </c>
       <c r="B21" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H21" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J21" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O21" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P21" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>157</v>
       </c>
       <c r="R21" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U21" s="4" t="s">
         <v>158</v>
       </c>
       <c r="V21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y21" s="4" t="s">
         <v>159</v>
       </c>
       <c r="Z21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB21" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AC21" s="4" t="s">
         <v>160</v>
       </c>
       <c r="AD21" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AE21" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF21" s="4" t="s">
         <v>161</v>
       </c>
       <c r="AG21" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH21" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI21" s="4" t="s">
         <v>80</v>
@@ -3952,108 +4226,108 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>42528.658654733794</v>
       </c>
       <c r="B22" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I22" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>165</v>
       </c>
       <c r="R22" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S22" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U22" s="4" t="s">
         <v>166</v>
       </c>
       <c r="V22" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W22" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X22" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y22" s="4" t="s">
         <v>167</v>
       </c>
       <c r="Z22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AC22" s="4" t="s">
         <v>168</v>
       </c>
       <c r="AD22" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AF22" s="4" t="s">
         <v>169</v>
       </c>
       <c r="AG22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AH22" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI22" s="4" t="s">
         <v>90</v>
@@ -4110,93 +4384,93 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>42528.688970324074</v>
       </c>
       <c r="B23" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F23" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H23" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J23" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K23" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L23" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M23" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N23" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O23" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P23" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R23" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S23" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T23" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V23" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W23" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X23" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z23" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA23" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB23" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AD23" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG23" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AH23" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AI23" s="4" t="s">
         <v>80</v>
@@ -4247,108 +4521,108 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>42528.69120917824</v>
+        <v>42528.691209178243</v>
       </c>
       <c r="B24" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G24" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H24" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J24" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K24" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L24" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M24" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N24" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O24" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P24" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>176</v>
       </c>
       <c r="R24" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S24" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T24" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U24" s="4" t="s">
         <v>177</v>
       </c>
       <c r="V24" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W24" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X24" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y24" s="4" t="s">
         <v>176</v>
       </c>
       <c r="Z24" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA24" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AC24" s="4" t="s">
         <v>177</v>
       </c>
       <c r="AD24" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AE24" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AF24" s="4" t="s">
         <v>178</v>
       </c>
       <c r="AG24" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH24" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI24" s="4" t="s">
         <v>80</v>
@@ -4399,96 +4673,96 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>42528.70404435185</v>
+        <v>42528.704044351849</v>
       </c>
       <c r="B25" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E25" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F25" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G25" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H25" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J25" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K25" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L25" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M25" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N25" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O25" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P25" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R25" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S25" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T25" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V25" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W25" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X25" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z25" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA25" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB25" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AC25" s="4" t="s">
         <v>181</v>
       </c>
       <c r="AD25" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE25" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG25" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH25" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI25" s="4" t="s">
         <v>81</v>
@@ -4542,93 +4816,93 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>42529.40579263889</v>
+        <v>42529.405792638892</v>
       </c>
       <c r="B26" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D26" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E26" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F26" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G26" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H26" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K26" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O26" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R26" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S26" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T26" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V26" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W26" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X26" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z26" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA26" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AB26" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AD26" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AG26" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH26" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI26" s="4" t="s">
         <v>81</v>
@@ -4679,96 +4953,96 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>42529.40608388888</v>
+        <v>42529.406083888884</v>
       </c>
       <c r="B27" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E27" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F27" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G27" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I27" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K27" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O27" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P27" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R27" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S27" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T27" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V27" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W27" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X27" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z27" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA27" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB27" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AD27" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE27" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF27" s="4" t="s">
         <v>187</v>
       </c>
       <c r="AG27" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH27" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI27" s="4" t="s">
         <v>80</v>
@@ -4819,93 +5093,93 @@
         <v>189</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>42529.43824902778</v>
+        <v>42529.438249027779</v>
       </c>
       <c r="B28" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H28" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I28" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J28" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T28" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB28" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH28" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI28" s="4" t="s">
         <v>81</v>
@@ -4959,93 +5233,93 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>42529.43893788195</v>
+        <v>42529.438937881947</v>
       </c>
       <c r="B29" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E29" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G29" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H29" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I29" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J29" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K29" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L29" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M29" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N29" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O29" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P29" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R29" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S29" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T29" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V29" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W29" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X29" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z29" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA29" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB29" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD29" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE29" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG29" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH29" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AK29" s="4" t="s">
         <v>90</v>
@@ -5093,96 +5367,96 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>42529.43958099537</v>
+        <v>42529.439580995371</v>
       </c>
       <c r="B30" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E30" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G30" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H30" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AD30" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE30" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AF30" s="4" t="s">
         <v>196</v>
       </c>
       <c r="AG30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH30" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI30" s="4" t="s">
         <v>80</v>
@@ -5236,99 +5510,99 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>42529.44149518519</v>
+        <v>42529.441495185187</v>
       </c>
       <c r="B31" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H31" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J31" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M31" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P31" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q31" s="4" t="s">
         <v>200</v>
       </c>
       <c r="R31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AD31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE31" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AF31" s="4" t="s">
         <v>201</v>
       </c>
       <c r="AG31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH31" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI31" s="4" t="s">
         <v>81</v>
@@ -5379,93 +5653,93 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>42529.47614240741</v>
+        <v>42529.476142407409</v>
       </c>
       <c r="B32" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E32" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F32" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G32" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H32" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J32" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K32" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L32" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M32" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N32" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O32" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P32" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="R32" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S32" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T32" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V32" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W32" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X32" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z32" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA32" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB32" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD32" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE32" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG32" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH32" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI32" s="4" t="s">
         <v>81</v>
@@ -5516,93 +5790,93 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>42529.47814655093</v>
       </c>
       <c r="B33" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C33" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D33" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E33" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F33" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G33" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H33" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I33" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J33" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K33" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L33" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M33" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N33" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O33" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P33" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R33" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S33" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T33" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V33" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W33" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X33" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z33" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA33" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB33" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AD33" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE33" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG33" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH33" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI33" s="4" t="s">
         <v>80</v>
@@ -5656,179 +5930,179 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>42529.53097415509</v>
+        <v>42529.530974155088</v>
       </c>
       <c r="B34" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C34" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F34" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G34" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H34" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I34" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J34" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K34" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L34" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M34" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N34" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O34" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P34" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="R34" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S34" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T34" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V34" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W34" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X34" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z34" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA34" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB34" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AD34" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE34" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BA34" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>42529.567410601856</v>
       </c>
       <c r="B35" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C35" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D35" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F35" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G35" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H35" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I35" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J35" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K35" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L35" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M35" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N35" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O35" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P35" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R35" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S35" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T35" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V35" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X35" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z35" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA35" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB35" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD35" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE35" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AG35" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH35" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AI35" s="4" t="s">
         <v>80</v>
@@ -5876,93 +6150,93 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>42529.568275625</v>
+        <v>42529.568275625003</v>
       </c>
       <c r="B36" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C36" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D36" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E36" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F36" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G36" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H36" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I36" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J36" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K36" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L36" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M36" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N36" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O36" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P36" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R36" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S36" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T36" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V36" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W36" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X36" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Z36" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA36" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AB36" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD36" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE36" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG36" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AH36" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI36" s="4" t="s">
         <v>80</v>
@@ -6004,93 +6278,93 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>42529.568645555555</v>
       </c>
       <c r="B37" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C37" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E37" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F37" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G37" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H37" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I37" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J37" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K37" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L37" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M37" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N37" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O37" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P37" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R37" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S37" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T37" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V37" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X37" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z37" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA37" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB37" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD37" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE37" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG37" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH37" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI37" s="4" t="s">
         <v>80</v>
@@ -6132,102 +6406,102 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>42529.692164803244</v>
       </c>
       <c r="B38" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C38" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E38" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G38" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H38" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I38" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J38" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K38" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L38" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M38" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O38" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P38" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R38" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S38" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T38" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U38" s="4" t="s">
         <v>216</v>
       </c>
       <c r="V38" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W38" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X38" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z38" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA38" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AB38" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC38" s="4" t="s">
         <v>217</v>
       </c>
       <c r="AD38" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AF38" s="4" t="s">
         <v>218</v>
       </c>
       <c r="AG38" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AH38" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AI38" s="4" t="s">
         <v>80</v>
@@ -6278,96 +6552,96 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>42529.69252216435</v>
+        <v>42529.692522164347</v>
       </c>
       <c r="B39" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C39" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E39" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G39" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H39" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I39" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J39" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M39" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P39" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R39" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T39" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U39" s="4" t="s">
         <v>221</v>
       </c>
       <c r="V39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AD39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG39" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH39" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI39" s="4" t="s">
         <v>80</v>
@@ -6415,93 +6689,93 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>42529.69331657408</v>
+        <v>42529.693316574077</v>
       </c>
       <c r="B40" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C40" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F40" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G40" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I40" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M40" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB40" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AD40" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE40" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG40" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AH40" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI40" s="4" t="s">
         <v>80</v>
@@ -6555,93 +6829,93 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>42530.408056712964</v>
       </c>
       <c r="B41" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C41" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D41" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E41" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H41" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J41" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M41" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T41" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB41" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AD41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH41" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI41" s="4" t="s">
         <v>81</v>
@@ -6692,93 +6966,93 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>42530.41042341435</v>
+        <v>42530.410423414352</v>
       </c>
       <c r="B42" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C42" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E42" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F42" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G42" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H42" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I42" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J42" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K42" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L42" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M42" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N42" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O42" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P42" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R42" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S42" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T42" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V42" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W42" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X42" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z42" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA42" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB42" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD42" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE42" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG42" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH42" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI42" s="4" t="s">
         <v>80</v>
@@ -6829,99 +7103,99 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42530.411322245374</v>
       </c>
       <c r="B43" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C43" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E43" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F43" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G43" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H43" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I43" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J43" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K43" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L43" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M43" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N43" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O43" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P43" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>232</v>
       </c>
       <c r="R43" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S43" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T43" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V43" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W43" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X43" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y43" s="4" t="s">
         <v>233</v>
       </c>
       <c r="Z43" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA43" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB43" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD43" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE43" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG43" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AH43" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI43" s="4" t="s">
         <v>80</v>
@@ -6975,93 +7249,93 @@
         <v>236</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>42530.43764134259</v>
+        <v>42530.437641342593</v>
       </c>
       <c r="B44" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C44" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E44" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F44" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G44" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H44" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I44" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J44" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K44" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L44" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M44" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N44" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O44" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P44" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R44" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S44" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T44" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V44" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W44" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="X44" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z44" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA44" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AB44" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AD44" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE44" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG44" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AH44" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI44" s="4" t="s">
         <v>80</v>
@@ -7109,108 +7383,108 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>42530.43927372685</v>
       </c>
       <c r="B45" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C45" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E45" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F45" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G45" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H45" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I45" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J45" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K45" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O45" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>238</v>
       </c>
       <c r="R45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U45" s="4" t="s">
         <v>239</v>
       </c>
       <c r="V45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y45" s="4" t="s">
         <v>240</v>
       </c>
       <c r="Z45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AC45" s="4" t="s">
         <v>241</v>
       </c>
       <c r="AD45" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF45" s="4" t="s">
         <v>242</v>
       </c>
       <c r="AG45" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH45" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI45" s="4" t="s">
         <v>81</v>
@@ -7267,96 +7541,96 @@
         <v>245</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42530.439279143524</v>
       </c>
       <c r="B46" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C46" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E46" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H46" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L46" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M46" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S46" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T46" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z46" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA46" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB46" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AD46" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF46" s="4" t="s">
         <v>246</v>
       </c>
       <c r="AG46" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH46" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI46" s="4" t="s">
         <v>80</v>
@@ -7410,99 +7684,99 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>42531.586675300925</v>
       </c>
       <c r="B47" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C47" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D47" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E47" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F47" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G47" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H47" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I47" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J47" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K47" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L47" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M47" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N47" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O47" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P47" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q47" s="4" t="s">
         <v>250</v>
       </c>
       <c r="R47" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S47" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T47" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V47" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W47" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X47" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Y47" s="4" t="s">
         <v>251</v>
       </c>
       <c r="Z47" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA47" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AB47" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AD47" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE47" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG47" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH47" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI47" s="4" t="s">
         <v>81</v>
@@ -7553,93 +7827,93 @@
         <v>253</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>42531.58704938657</v>
+        <v>42531.587049386573</v>
       </c>
       <c r="B48" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C48" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E48" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H48" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L48" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M48" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N48" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P48" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T48" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z48" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB48" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AD48" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AE48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH48" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI48" s="4" t="s">
         <v>80</v>
@@ -7687,93 +7961,93 @@
         <v>254</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>42531.5898059375</v>
+        <v>42531.589805937503</v>
       </c>
       <c r="B49" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C49" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J49" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L49" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M49" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R49" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T49" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V49" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W49" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X49" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z49" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB49" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD49" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG49" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AH49" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI49" s="4" t="s">
         <v>80</v>
@@ -7827,96 +8101,96 @@
         <v>257</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>42531.591108865745</v>
       </c>
       <c r="B50" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C50" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D50" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E50" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F50" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G50" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H50" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I50" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J50" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K50" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L50" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M50" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N50" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O50" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P50" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R50" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S50" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T50" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V50" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W50" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X50" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="Y50" s="4" t="s">
         <v>258</v>
       </c>
       <c r="Z50" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA50" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB50" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD50" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE50" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG50" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AH50" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI50" s="4" t="s">
         <v>80</v>
@@ -7970,93 +8244,93 @@
         <v>261</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>42531.7084683912</v>
+        <v>42531.708468391203</v>
       </c>
       <c r="B51" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C51" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D51" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E51" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F51" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G51" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H51" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I51" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J51" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K51" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L51" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M51" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N51" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O51" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P51" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R51" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S51" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T51" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="V51" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W51" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X51" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Z51" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA51" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB51" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD51" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AE51" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AG51" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH51" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI51" s="4" t="s">
         <v>80</v>
@@ -8110,96 +8384,96 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>42531.7087703588</v>
+        <v>42531.708770358797</v>
       </c>
       <c r="B52" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C52" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D52" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E52" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F52" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G52" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H52" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I52" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J52" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K52" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L52" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M52" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N52" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O52" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P52" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R52" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S52" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T52" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V52" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W52" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X52" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z52" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA52" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB52" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD52" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE52" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AF52" s="4" t="s">
         <v>265</v>
       </c>
       <c r="AG52" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH52" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI52" s="4" t="s">
         <v>81</v>
@@ -8253,105 +8527,105 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>42531.70931443287</v>
+        <v>42531.709314432868</v>
       </c>
       <c r="B53" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C53" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E53" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F53" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G53" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K53" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M53" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="N53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O53" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q53" s="4" t="s">
         <v>269</v>
       </c>
       <c r="R53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S53" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="U53" s="4" t="s">
         <v>270</v>
       </c>
       <c r="V53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y53" s="4" t="s">
         <v>271</v>
       </c>
       <c r="Z53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AC53" s="4" t="s">
         <v>272</v>
       </c>
       <c r="AD53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AE53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH53" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI53" s="4" t="s">
         <v>80</v>
@@ -8405,102 +8679,102 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>42531.710083240745</v>
       </c>
       <c r="B54" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C54" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E54" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F54" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G54" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H54" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I54" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J54" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K54" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L54" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M54" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N54" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O54" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P54" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R54" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S54" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T54" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U54" s="4" t="s">
         <v>276</v>
       </c>
       <c r="V54" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W54" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X54" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z54" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA54" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB54" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AC54" s="4" t="s">
         <v>277</v>
       </c>
       <c r="AD54" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AE54" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AF54" s="4" t="s">
         <v>278</v>
       </c>
       <c r="AG54" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AH54" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI54" s="4" t="s">
         <v>90</v>
@@ -8557,185 +8831,185 @@
         <v>282</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>42531.73696648148</v>
+        <v>42531.736966481483</v>
       </c>
       <c r="B55" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C55" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D55" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E55" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F55" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G55" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H55" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J55" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K55" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L55" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M55" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N55" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O55" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P55" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Q55" s="4" t="s">
         <v>283</v>
       </c>
       <c r="R55" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S55" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T55" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V55" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W55" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X55" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Y55" s="4" t="s">
         <v>284</v>
       </c>
       <c r="Z55" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA55" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB55" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AD55" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE55" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="BA55" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>42531.765510173616</v>
       </c>
       <c r="B56" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E56" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G56" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H56" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J56" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M56" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="S56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="V56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AD56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE56" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG56" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH56" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI56" s="4" t="s">
         <v>81</v>
@@ -8783,93 +9057,93 @@
         <v>286</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>42531.767150960644</v>
       </c>
       <c r="B57" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F57" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G57" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I57" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J57" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K57" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L57" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N57" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O57" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P57" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="V57" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W57" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X57" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AD57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AE57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG57" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AH57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI57" s="4" t="s">
         <v>80</v>
@@ -8911,93 +9185,93 @@
         <v>289</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>42531.7810865625</v>
       </c>
       <c r="B58" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E58" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G58" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H58" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J58" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M58" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="P58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R58" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T58" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AB58" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AD58" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AE58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AG58" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH58" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AZ58" s="4" t="s">
         <v>59</v>
@@ -9006,93 +9280,93 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>42538.61362068287</v>
+        <v>42538.613620682867</v>
       </c>
       <c r="B59" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C59" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E59" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F59" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G59" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H59" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I59" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J59" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K59" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L59" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M59" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N59" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O59" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P59" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="R59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="S59" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T59" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V59" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W59" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X59" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z59" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AB59" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD59" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE59" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG59" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH59" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI59" s="4" t="s">
         <v>90</v>
@@ -9149,93 +9423,93 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>42538.61446416666</v>
+        <v>42538.614464166661</v>
       </c>
       <c r="B60" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C60" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D60" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E60" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F60" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G60" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H60" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I60" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J60" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K60" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L60" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M60" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N60" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O60" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P60" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R60" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S60" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T60" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="V60" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W60" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="X60" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z60" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA60" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB60" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD60" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE60" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AG60" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AH60" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI60" s="4" t="s">
         <v>81</v>
@@ -9289,105 +9563,105 @@
         <v>297</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>42538.614669745366</v>
       </c>
       <c r="B61" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C61" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E61" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F61" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G61" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H61" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I61" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J61" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K61" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="L61" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M61" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N61" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O61" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P61" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>298</v>
       </c>
       <c r="R61" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="S61" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T61" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U61" s="4" t="s">
         <v>299</v>
       </c>
       <c r="V61" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="W61" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="X61" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="Z61" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA61" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AB61" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AC61" s="4" t="s">
         <v>300</v>
       </c>
       <c r="AD61" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AE61" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AF61" s="4" t="s">
         <v>301</v>
       </c>
       <c r="AG61" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH61" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AI61" s="4" t="s">
         <v>80</v>
@@ -9435,96 +9709,96 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:53" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>42538.614812789354</v>
       </c>
       <c r="B62" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C62" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D62" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E62" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F62" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G62" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H62" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I62" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J62" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K62" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L62" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M62" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="N62" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="O62" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="P62" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R62" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="S62" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T62" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U62" s="4" t="s">
         <v>305</v>
       </c>
       <c r="V62" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="W62" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="X62" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="Z62" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA62" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AB62" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD62" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AE62" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AG62" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AH62" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AI62" s="4" t="s">
         <v>81</v>
@@ -9578,7 +9852,13 @@
         <v>308</v>
       </c>
     </row>
+    <row r="64" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA64" s="8">
+        <f>COUNTA(BA3:BA62)</f>
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>